--- a/data/hotels_by_city/Houston/Houston_shard_502.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_502.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56010-d1177208-Reviews-Motel_6_Humble-Humble_Texas.html</t>
   </si>
   <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Motel-6-Humble-TX.h1853294.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,243 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1177208-r534958840-Motel_6_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>56010</t>
+  </si>
+  <si>
+    <t>1177208</t>
+  </si>
+  <si>
+    <t>534958840</t>
+  </si>
+  <si>
+    <t>10/21/2017</t>
+  </si>
+  <si>
+    <t>Excellent Room</t>
+  </si>
+  <si>
+    <t>This Motel 6 has 3 Floors and No Elevators - The night I stayed, I was fortunate enough to have a Ground Floor, Non-Smoking Room. I could not have stayed if I had had to climb the steps. Steps with no elevator would be the one and only negative for me for this motel. I rated Excellent for the very clean room with good rates and the courteous and efficient staff with quick check-in and check-out. Would stay again and would recommend to my family and friends.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1177208-r529221726-Motel_6_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>529221726</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>Night of honey moon!</t>
+  </si>
+  <si>
+    <t>Too tired to drive all the way to  Louisiana the day we got married. Stayed 1 night. It was nicely locasted by pretty much anything you need. Room was ok. Not fancy but a place to sleep:) we were on the 3ed floor which kinda was a pain. Easy to find. Off a major freeway. Airport very close by.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1177208-r415887459-Motel_6_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>415887459</t>
+  </si>
+  <si>
+    <t>09/07/2016</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>I pretty much live on the road this is one of the nicer Motel 6 as I've stayed at the rooms are very clean it is a quiet place to stay I tried staying at the Super 8 across the street it was a horrible experience so if you have a choice stay here I pull a 35 foot flatbed trailer parking is very limited but available</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1177208-r349825854-Motel_6_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>349825854</t>
+  </si>
+  <si>
+    <t>02/21/2016</t>
+  </si>
+  <si>
+    <t>Simple, cheap and clean motel</t>
+  </si>
+  <si>
+    <t>Sometime a Motel 6 is all one needs. This one is updated and clean. Its also in a wonderful location for food and close to shopping. One can walk to a half a dozen excellent restaurant and its a short drive to a big mall.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1177208-r337696449-Motel_6_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>337696449</t>
+  </si>
+  <si>
+    <t>01/05/2016</t>
+  </si>
+  <si>
+    <t>Clean and well maintained</t>
+  </si>
+  <si>
+    <t>I just needed a place to spend the night while visiting family in the area.  I wasn't on vacation and was not with my wife-so my standards were different. It was clean, heater worked, wi-fi worked, fridge and microwave were clean and working. Surprised to see a new LG flat screen - great picture.  Not a resort destination-it is Motel 6.  Know that going in...</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1177208-r273024652-Motel_6_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>273024652</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>Simple Hotel Great Staff</t>
+  </si>
+  <si>
+    <t>I stayed here recently for 2 nights. Granted, it was a short stay, but it was very, very comfortable stay. At this level hotel, I didn't expect a high level of comfort, but was very pleasantly surprised. The bed were decent quality, and extremely comfortable. The staff was very helpful and accommodating. There was a non functional door, and the staff was quick to re assign my room. The were welcoming and very friendly towards my pets.. Some parts of the hotel are rather dated needs some  maintenance and repair,  but the price was perfect. It is surrounded by several restaurants Hooters, Chilis, and several others. So very nice eating opportunities. I would and will be staying at this property again when travelling intoMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>I stayed here recently for 2 nights. Granted, it was a short stay, but it was very, very comfortable stay. At this level hotel, I didn't expect a high level of comfort, but was very pleasantly surprised. The bed were decent quality, and extremely comfortable. The staff was very helpful and accommodating. There was a non functional door, and the staff was quick to re assign my room. The were welcoming and very friendly towards my pets.. Some parts of the hotel are rather dated needs some  maintenance and repair,  but the price was perfect. It is surrounded by several restaurants Hooters, Chilis, and several others. So very nice eating opportunities. I would and will be staying at this property again when travelling intoMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1177208-r212174754-Motel_6_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>212174754</t>
+  </si>
+  <si>
+    <t>06/26/2014</t>
+  </si>
+  <si>
+    <t>Great staff. Great price. Updated hardwood floors.</t>
+  </si>
+  <si>
+    <t>Great for price 1st 2 floors updated to hardwood... No smell. Working on 3 rd floor hardwood flooring. I like the smoking option. Mr. Patel was friendly. Don't listen to those bad reviews... They have updated</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1177208-r176271580-Motel_6_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>176271580</t>
+  </si>
+  <si>
+    <t>09/08/2013</t>
+  </si>
+  <si>
+    <t>BED BUGS!</t>
+  </si>
+  <si>
+    <t>Stayed at Motel 6 Humble, TX room 119 and was bitten up all along my arms and legs with bed bugs.  At least 20 times.  I called customer service for Motel 6 and was sent a letter saying it wasn't any of their business and I should call the motel directly.   I then called the Motel directly and they never called me back.  They don't even want to know they have bed bugs.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Jigbp, Manager at Motel 6 Humble, responded to this reviewResponded November 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 19, 2013</t>
+  </si>
+  <si>
+    <t>Stayed at Motel 6 Humble, TX room 119 and was bitten up all along my arms and legs with bed bugs.  At least 20 times.  I called customer service for Motel 6 and was sent a letter saying it wasn't any of their business and I should call the motel directly.   I then called the Motel directly and they never called me back.  They don't even want to know they have bed bugs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1177208-r160076736-Motel_6_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>160076736</t>
+  </si>
+  <si>
+    <t>05/08/2013</t>
+  </si>
+  <si>
+    <t>Nicely maintained hotel for the frugal at heart</t>
+  </si>
+  <si>
+    <t>I was impressed with the reviews I had previously seen about this hotel and they were mostly spot on. Nothing special here. The price was very reasonable and the rooms were average. The employees were very nice and I can't say that I have a complaint about any of my accomodations while staying here. There were bugs in the pool, but I don't swim, so it didn't bother me. THE BEST PART ABOUT THIS HOTEL ISN'T THE HOTEL ITSELF. Let me explain...There are many eating establishments within close proximity to the hotel. Saltgrass, Chili's, Joe's Crabshack(i don't recommend it unless you appreciate the flora which they have spent a lot of money on which surrounds their building), Hooter's, Pappas BBQ, Red lobster. Also there is a Home Depot, Office Depot, Best Buy, and several other shopping options just a stone's throw from the hotel. It is very centrally located around a lot of possibilities which makes the price of the rooms that much more attractive. There are also 24 AMC theaters just across Highway 59. So all in all it was an average stay in an average room with average amenities. Nothing to complain about.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>I was impressed with the reviews I had previously seen about this hotel and they were mostly spot on. Nothing special here. The price was very reasonable and the rooms were average. The employees were very nice and I can't say that I have a complaint about any of my accomodations while staying here. There were bugs in the pool, but I don't swim, so it didn't bother me. THE BEST PART ABOUT THIS HOTEL ISN'T THE HOTEL ITSELF. Let me explain...There are many eating establishments within close proximity to the hotel. Saltgrass, Chili's, Joe's Crabshack(i don't recommend it unless you appreciate the flora which they have spent a lot of money on which surrounds their building), Hooter's, Pappas BBQ, Red lobster. Also there is a Home Depot, Office Depot, Best Buy, and several other shopping options just a stone's throw from the hotel. It is very centrally located around a lot of possibilities which makes the price of the rooms that much more attractive. There are also 24 AMC theaters just across Highway 59. So all in all it was an average stay in an average room with average amenities. Nothing to complain about.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1177208-r150123567-Motel_6_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>150123567</t>
+  </si>
+  <si>
+    <t>01/20/2013</t>
+  </si>
+  <si>
+    <t>It's ok!</t>
+  </si>
+  <si>
+    <t>We stayed here for one day prior to flying out of IAH. Checkin was ok, $70 a day. Our room was old but clean, has microwave, mini fridge and complimentary wifi. The Hotel doesn't have shuttle to the airport  but the manager called the taxi and we payed U$20 each way.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1177208-r129452969-Motel_6_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>129452969</t>
+  </si>
+  <si>
+    <t>05/06/2012</t>
+  </si>
+  <si>
+    <t>Really nice for a Motel 6</t>
+  </si>
+  <si>
+    <t>The Super 8 was sold out of non smoking rooms so we decided to try out the Motel 6 (after looking at the room first).  I was pleasantly surprised since i have stayed at Motel 6's before and hoping I would never have to stay in one again. The rooms were very clean. I did think $65 after tax was high for a Motel 6.  Just FYI.. They do not have hair dryers or shampoo.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1177208-r87053878-Motel_6_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>87053878</t>
+  </si>
+  <si>
+    <t>11/14/2010</t>
+  </si>
+  <si>
+    <t>Awesome Value</t>
+  </si>
+  <si>
+    <t>I stayed here prior to flying out of IAH. Check-in was smooth and very friendly. The rooms are recently renovated and mine was very, very, very clean. The rooms have complimentary wifi, microwave and minifridge. It has numerous chain restaurants within walking distances...great stay for the money!</t>
   </si>
 </sst>
 </file>
@@ -532,11 +775,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +807,837 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>7479</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7479</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>7479</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7479</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>7479</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7479</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7479</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7479</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>96</v>
+      </c>
+      <c r="X9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7479</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7479</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>58</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>7479</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>7479</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_502.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_502.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="180">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,57 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1177208-r596746601-Motel_6_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>56010</t>
+  </si>
+  <si>
+    <t>1177208</t>
+  </si>
+  <si>
+    <t>596746601</t>
+  </si>
+  <si>
+    <t>07/16/2018</t>
+  </si>
+  <si>
+    <t>Great for the location, price and remodel</t>
+  </si>
+  <si>
+    <t>Clean, remodeled, comfortable room with all the basic necessities.  Walking distance to several restaurants.  Check in was with friendly older lady.  The morning employee (young ethnic guy) ignored us when we mentioned they were out of coffee in lobby.  When we left, we understood why he ignored us because he was watching porn on his computer.  Other than that, good stay for the price and location is less than 10 minutes from the airport.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1177208-r561142492-Motel_6_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>561142492</t>
+  </si>
+  <si>
+    <t>02/17/2018</t>
+  </si>
+  <si>
+    <t>Clean and Humble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed at this motel for a short 14 hour layover. Very easy check-in and clean room. No elevator so might not be good for a person with mobility issues. Room has refrigerator, microwave and modern furniture. There is also a pool and lots of commercial restaurants nearby. </t>
+  </si>
+  <si>
+    <t>February 2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1177208-r534958840-Motel_6_Humble-Humble_Texas.html</t>
   </si>
   <si>
-    <t>56010</t>
-  </si>
-  <si>
-    <t>1177208</t>
-  </si>
-  <si>
     <t>534958840</t>
   </si>
   <si>
@@ -192,9 +231,6 @@
     <t>Too tired to drive all the way to  Louisiana the day we got married. Stayed 1 night. It was nicely locasted by pretty much anything you need. Room was ok. Not fancy but a place to sleep:) we were on the 3ed floor which kinda was a pain. Easy to find. Off a major freeway. Airport very close by.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1177208-r415887459-Motel_6_Humble-Humble_Texas.html</t>
   </si>
   <si>
@@ -213,6 +249,45 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1177208-r395954983-Motel_6_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>395954983</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>Not for Older or Handicapped</t>
+  </si>
+  <si>
+    <t>While rooms are what one would expect - comfortable. I could only get a THIRD floor room (not full motel) and ice only located on FIRST Floor. Would expect less mobile and handicapped could have a room available. I barely made it to the third floor room assigned  - no elevators, and almost had heat stroke having to go get ice on 1st floor. Thankful, room was fairly clean (found penny next to bed and a torn piece of wrapper). Too exhausted to attempt another place. Always love Motel 6 accepts dogs - my B.O.B. (Big Ole Boy) 12 yrs can stay. But he can hardly make stairs either.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1177208-r368146886-Motel_6_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>368146886</t>
+  </si>
+  <si>
+    <t>04/27/2016</t>
+  </si>
+  <si>
+    <t>Well Worth your Money!</t>
+  </si>
+  <si>
+    <t>This is the very best Motel 6 I have stayed in for 20+ years.  The room was absolutely spotless, new fixtures, walls very clean, bed extremely comfortable.  Did I say how clean and sparkling it was?  I am very happy to recommend this hotel to all coming to Houston.  It is 4 miles from the airport.  $52 is a great deal for a king bed.  There are stairs, no elevator but the quality is worth the hassle of stairs.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1177208-r349825854-Motel_6_Humble-Humble_Texas.html</t>
   </si>
   <si>
@@ -231,9 +306,6 @@
     <t>February 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1177208-r337696449-Motel_6_Humble-Humble_Texas.html</t>
   </si>
   <si>
@@ -273,6 +345,54 @@
     <t>I stayed here recently for 2 nights. Granted, it was a short stay, but it was very, very comfortable stay. At this level hotel, I didn't expect a high level of comfort, but was very pleasantly surprised. The bed were decent quality, and extremely comfortable. The staff was very helpful and accommodating. There was a non functional door, and the staff was quick to re assign my room. The were welcoming and very friendly towards my pets.. Some parts of the hotel are rather dated needs some  maintenance and repair,  but the price was perfect. It is surrounded by several restaurants Hooters, Chilis, and several others. So very nice eating opportunities. I would and will be staying at this property again when travelling intoMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1177208-r235982641-Motel_6_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>235982641</t>
+  </si>
+  <si>
+    <t>10/23/2014</t>
+  </si>
+  <si>
+    <t>A stop over after a long drive</t>
+  </si>
+  <si>
+    <t>Stopped over for the night and booked an economy minded hotel. The check in was just OK. The property is dated stairways were in need of repair and paint.  I'm a senior and needed a first floor room. The clerk said only 3rd floor rooms were available (no lift) I have a little trouble with steps so I had to tough it out and climb the steps. The room was clean with a king bed.  The bed only had 2 small pillows. I called and asked if they had a couple of extra pillows to prop up my leg so I could sleep. The clerk said everybody had taken all the pillows and they had non. I waked down the steps and went to the clerk and asked her to check and make sure they didn't have any. She found 1 pillow and let me have a blanket for my leg. There was no soap for the bath   but instead of hassling with her again I used some I packed with me and went to bed.If  On my experience I don't recommend the motel spend a couple extra dollars.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Humble, responded to this reviewResponded November 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2014</t>
+  </si>
+  <si>
+    <t>Stopped over for the night and booked an economy minded hotel. The check in was just OK. The property is dated stairways were in need of repair and paint.  I'm a senior and needed a first floor room. The clerk said only 3rd floor rooms were available (no lift) I have a little trouble with steps so I had to tough it out and climb the steps. The room was clean with a king bed.  The bed only had 2 small pillows. I called and asked if they had a couple of extra pillows to prop up my leg so I could sleep. The clerk said everybody had taken all the pillows and they had non. I waked down the steps and went to the clerk and asked her to check and make sure they didn't have any. She found 1 pillow and let me have a blanket for my leg. There was no soap for the bath   but instead of hassling with her again I used some I packed with me and went to bed.If  On my experience I don't recommend the motel spend a couple extra dollars.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1177208-r228847739-Motel_6_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>228847739</t>
+  </si>
+  <si>
+    <t>09/14/2014</t>
+  </si>
+  <si>
+    <t>Affordable and clean...</t>
+  </si>
+  <si>
+    <t>We stayed here for a reset of our drive hours (commercial driver's regulation). I'm normally hesitant about Motel 6 due to past experiences. This hotel however is a great exception.  Clean, affordable,  and friendly.  The hotel is located in the rear of a shopping center with lots of big name restaurants nearby. Little to moderate noise but nothing disturbing.  The only drawback I could mention is the hardwood floors.  Otherwise it's a good place to stay.  There's five slots for big rigs or RVs to park directly across from the front office door. There's a CDL discount price of $54.99 per night. However I got a lower online price of $49.49 per night for a two night stay (10% discount). I'd stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>We stayed here for a reset of our drive hours (commercial driver's regulation). I'm normally hesitant about Motel 6 due to past experiences. This hotel however is a great exception.  Clean, affordable,  and friendly.  The hotel is located in the rear of a shopping center with lots of big name restaurants nearby. Little to moderate noise but nothing disturbing.  The only drawback I could mention is the hardwood floors.  Otherwise it's a good place to stay.  There's five slots for big rigs or RVs to park directly across from the front office door. There's a CDL discount price of $54.99 per night. However I got a lower online price of $49.49 per night for a two night stay (10% discount). I'd stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1177208-r212174754-Motel_6_Humble-Humble_Texas.html</t>
   </si>
   <si>
@@ -336,6 +456,42 @@
     <t>I was impressed with the reviews I had previously seen about this hotel and they were mostly spot on. Nothing special here. The price was very reasonable and the rooms were average. The employees were very nice and I can't say that I have a complaint about any of my accomodations while staying here. There were bugs in the pool, but I don't swim, so it didn't bother me. THE BEST PART ABOUT THIS HOTEL ISN'T THE HOTEL ITSELF. Let me explain...There are many eating establishments within close proximity to the hotel. Saltgrass, Chili's, Joe's Crabshack(i don't recommend it unless you appreciate the flora which they have spent a lot of money on which surrounds their building), Hooter's, Pappas BBQ, Red lobster. Also there is a Home Depot, Office Depot, Best Buy, and several other shopping options just a stone's throw from the hotel. It is very centrally located around a lot of possibilities which makes the price of the rooms that much more attractive. There are also 24 AMC theaters just across Highway 59. So all in all it was an average stay in an average room with average amenities. Nothing to complain about.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1177208-r154128063-Motel_6_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>154128063</t>
+  </si>
+  <si>
+    <t>03/09/2013</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best motel 6. Great staff, good neighborhood, great value, my room didn't feel like a dorm room, like some other motels. I just needed a cheap place for the night, but I'd probably stay here again anyways. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1177208-r153101453-Motel_6_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>153101453</t>
+  </si>
+  <si>
+    <t>02/25/2013</t>
+  </si>
+  <si>
+    <t>cheap place to stay in Humble Texas</t>
+  </si>
+  <si>
+    <t>The rooms were remodeled, but less than perfect. Pretty clean for price. If staying by the week expect to use the stairs at this 3 story motel, as they will not rent 1st floor by the week. The motel is fine for an overnight stay, but after a couple days the sad interiors start to get boring. The staff was friendly, however they only make up your room or change towels 2 times a week. I asked for my linens to be changed after the 4th day and it was done.There are lots of places for food nearby and shopping is plentiful as well.By the week I paid $35.00/night plus $50.00 deposit. The deposit if paid in cash is refundable at checkout. If paid by card it will be returned in 7-10 days.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>The rooms were remodeled, but less than perfect. Pretty clean for price. If staying by the week expect to use the stairs at this 3 story motel, as they will not rent 1st floor by the week. The motel is fine for an overnight stay, but after a couple days the sad interiors start to get boring. The staff was friendly, however they only make up your room or change towels 2 times a week. I asked for my linens to be changed after the 4th day and it was done.There are lots of places for food nearby and shopping is plentiful as well.By the week I paid $35.00/night plus $50.00 deposit. The deposit if paid in cash is refundable at checkout. If paid by card it will be returned in 7-10 days.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1177208-r150123567-Motel_6_Humble-Humble_Texas.html</t>
   </si>
   <si>
@@ -382,6 +538,24 @@
   </si>
   <si>
     <t>I stayed here prior to flying out of IAH. Check-in was smooth and very friendly. The rooms are recently renovated and mine was very, very, very clean. The rooms have complimentary wifi, microwave and minifridge. It has numerous chain restaurants within walking distances...great stay for the money!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1177208-r20997527-Motel_6_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>20997527</t>
+  </si>
+  <si>
+    <t>10/19/2008</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>Stayed 1 night before catching flight. Room was really clean, far better than some expensive places I have stayed. Staff were friendly and although the hotel is close to a main road the traffic noise did not disturb  me.</t>
+  </si>
+  <si>
+    <t>October 2008</t>
   </si>
 </sst>
 </file>
@@ -916,7 +1090,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -925,16 +1099,14 @@
         <v>52</v>
       </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -982,10 +1154,10 @@
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1036,20 +1208,26 @@
         <v>63</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
         <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
@@ -1072,7 +1250,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1081,43 +1259,39 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>4</v>
-      </c>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>4</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -1133,7 +1307,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1142,45 +1316,39 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
         <v>73</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>74</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>75</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>76</v>
       </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>77</v>
-      </c>
       <c r="O6" t="s">
-        <v>71</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -1196,7 +1364,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1205,34 +1373,34 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
         <v>79</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>80</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>81</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
         <v>82</v>
       </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>83</v>
       </c>
-      <c r="O7" t="s">
-        <v>71</v>
-      </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
-      <c r="R7" t="n">
-        <v>4</v>
-      </c>
-      <c r="S7" t="s"/>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
         <v>5</v>
@@ -1243,7 +1411,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
@@ -1259,7 +1427,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1268,34 +1436,34 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
         <v>86</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>87</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>88</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>89</v>
       </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
+      <c r="O8" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="n">
         <v>5</v>
       </c>
       <c r="R8" t="n">
         <v>5</v>
       </c>
-      <c r="S8" t="n">
-        <v>4</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
         <v>5</v>
@@ -1306,7 +1474,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
@@ -1343,41 +1511,31 @@
         <v>94</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
         <v>95</v>
       </c>
       <c r="O9" t="s">
-        <v>71</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
       <c r="R9" t="n">
-        <v>3</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>96</v>
-      </c>
-      <c r="X9" t="s">
-        <v>97</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
@@ -1393,7 +1551,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1402,41 +1560,37 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" t="s">
         <v>100</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>101</v>
       </c>
-      <c r="K10" t="s">
-        <v>102</v>
-      </c>
-      <c r="L10" t="s">
-        <v>103</v>
-      </c>
-      <c r="M10" t="n">
-        <v>3</v>
-      </c>
-      <c r="N10" t="s">
-        <v>104</v>
-      </c>
       <c r="O10" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
-      </c>
-      <c r="R10" t="n">
-        <v>3</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1444,7 +1598,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -1460,7 +1614,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -1469,41 +1623,37 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
         <v>107</v>
       </c>
-      <c r="J11" t="s">
-        <v>108</v>
-      </c>
-      <c r="K11" t="s">
-        <v>109</v>
-      </c>
-      <c r="L11" t="s">
-        <v>110</v>
-      </c>
-      <c r="M11" t="n">
-        <v>3</v>
-      </c>
-      <c r="N11" t="s">
-        <v>111</v>
-      </c>
       <c r="O11" t="s">
-        <v>58</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R11" t="n">
-        <v>3</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1511,7 +1661,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
@@ -1527,7 +1677,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -1536,45 +1686,47 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L12" t="s">
         <v>113</v>
       </c>
-      <c r="J12" t="s">
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
         <v>114</v>
       </c>
-      <c r="K12" t="s">
-        <v>115</v>
-      </c>
-      <c r="L12" t="s">
-        <v>116</v>
-      </c>
-      <c r="M12" t="n">
-        <v>4</v>
-      </c>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
-      <c r="P12" t="n">
+      <c r="O12" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
         <v>3</v>
       </c>
-      <c r="Q12" t="n">
-        <v>4</v>
-      </c>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" t="n">
-        <v>4</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>115</v>
+      </c>
+      <c r="X12" t="s">
+        <v>116</v>
+      </c>
       <c r="Y12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13">
@@ -1590,7 +1742,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -1599,45 +1751,630 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+      <c r="N13" t="s">
+        <v>123</v>
+      </c>
+      <c r="O13" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>121</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>7479</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" t="s">
+        <v>129</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>7479</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" t="s">
+        <v>133</v>
+      </c>
+      <c r="L15" t="s">
+        <v>134</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>135</v>
+      </c>
+      <c r="O15" t="s">
+        <v>83</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>136</v>
+      </c>
+      <c r="X15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>7479</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>7479</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>147</v>
+      </c>
+      <c r="J17" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" t="s">
+        <v>149</v>
+      </c>
+      <c r="L17" t="s">
+        <v>150</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>7479</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>152</v>
+      </c>
+      <c r="J18" t="s">
+        <v>153</v>
+      </c>
+      <c r="K18" t="s">
+        <v>154</v>
+      </c>
+      <c r="L18" t="s">
+        <v>155</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>156</v>
+      </c>
+      <c r="O18" t="s">
+        <v>65</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>7479</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>159</v>
+      </c>
+      <c r="J19" t="s">
+        <v>160</v>
+      </c>
+      <c r="K19" t="s">
+        <v>161</v>
+      </c>
+      <c r="L19" t="s">
+        <v>162</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>163</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>7479</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>165</v>
+      </c>
+      <c r="J20" t="s">
+        <v>166</v>
+      </c>
+      <c r="K20" t="s">
+        <v>167</v>
+      </c>
+      <c r="L20" t="s">
+        <v>168</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>7479</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>170</v>
+      </c>
+      <c r="J21" t="s">
+        <v>171</v>
+      </c>
+      <c r="K21" t="s">
+        <v>172</v>
+      </c>
+      <c r="L21" t="s">
+        <v>173</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7479</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>175</v>
+      </c>
+      <c r="J22" t="s">
+        <v>176</v>
+      </c>
+      <c r="K22" t="s">
+        <v>177</v>
+      </c>
+      <c r="L22" t="s">
+        <v>178</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>179</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
